--- a/data/abundance.xlsx
+++ b/data/abundance.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandon/2025/elk_pt_reyes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACE77F-BEF7-C640-97B0-C0AC640F0D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F87A58-15FE-F649-9EDD-197B19908148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="37340" windowHeight="21100" xr2:uid="{A4F87FF5-8CAB-024D-A7BE-B654E4F5096A}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
-    <sheet name="drakes" sheetId="4" r:id="rId2"/>
-    <sheet name="limantour" sheetId="5" r:id="rId3"/>
-    <sheet name="tomales" sheetId="3" r:id="rId4"/>
-    <sheet name="notes" sheetId="2" r:id="rId5"/>
+    <sheet name="master_w_lambda" sheetId="6" r:id="rId2"/>
+    <sheet name="drakes" sheetId="4" r:id="rId3"/>
+    <sheet name="limantour" sheetId="5" r:id="rId4"/>
+    <sheet name="tomales" sheetId="3" r:id="rId5"/>
+    <sheet name="notes" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -150,12 +151,6 @@
     <t>branch_antlered</t>
   </si>
   <si>
-    <t>Not introduced at Limantour until 1999?</t>
-  </si>
-  <si>
-    <t>Not introduced at Drakes until 1999?</t>
-  </si>
-  <si>
     <t>Gogan (1986), as cited in Howell et al. (2002)</t>
   </si>
   <si>
@@ -165,26 +160,23 @@
     <t>Table 2. Drakes Herd Counts</t>
   </si>
   <si>
-    <t>cow_lambda</t>
-  </si>
-  <si>
-    <t>bull_lambda</t>
-  </si>
-  <si>
-    <t>all_lambda</t>
-  </si>
-  <si>
     <t>https://www.nps.gov/pore/learn/news/newsreleases_20210331_tule_elk_census_2020.htm?fbclid=IwAR0LSIGxAbIc30ybYvIvbolGn95K3C5f6K-cc3L9UbF9h00Y3eTuZuWCY18</t>
   </si>
   <si>
-    <t xml:space="preserve">Note 1998 total count in Bernot and Press (2018) given here, differ slightly from those given in Howell et al. (2002) in row above </t>
+    <t>Note (1) 1998 total count in Bernot and Press (2018) given here, differ slightly from those given in Howell et al. (2002) in row above; and (2) In 1998, 28 animals were taken from the Tomales herd and released into the Limantour wilderness area.</t>
+  </si>
+  <si>
+    <t>In 1998, twenty-eight animals taken from the Tomales Point preserve were released in the wilderness area south of Limantour Beach.</t>
+  </si>
+  <si>
+    <t>Strays from Limantour began occupying Drakes in 1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +218,11 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -263,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -289,13 +286,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,11 +623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3325F6A5-A5A0-F64D-944C-4E079E8C6D8D}">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,24 +635,24 @@
     <col min="3" max="5" width="10.83203125" style="8"/>
     <col min="6" max="6" width="8.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.83203125" style="8"/>
+    <col min="8" max="8" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -668,23 +660,14 @@
       <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1978</v>
       </c>
@@ -692,13 +675,14 @@
         <v>10</v>
       </c>
       <c r="C2" s="8">
-        <v>10</v>
+        <f>D2+E2+H2</f>
+        <v>12</v>
       </c>
       <c r="D2" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8">
         <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
@@ -707,23 +691,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2:H33" si="0">SUM(C2:E2)</f>
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1979</v>
       </c>
@@ -731,13 +705,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="8">
-        <v>10</v>
+        <f>D3+E3+H3</f>
+        <v>12</v>
       </c>
       <c r="D3" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -746,26 +721,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I3" s="15">
-        <f>C3/C2</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
-        <f>E3/E2</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <f>H3/H2</f>
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1980</v>
       </c>
@@ -773,41 +735,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="8">
-        <v>10</v>
+        <f t="shared" ref="C4:C42" si="0">D4+E4+H4</f>
+        <v>15</v>
       </c>
       <c r="D4" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="I4" s="15">
-        <f t="shared" ref="I4:I42" si="1">C4/C3</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" ref="J4:J42" si="2">E4/E3</f>
-        <v>2</v>
-      </c>
-      <c r="K4" s="15">
-        <f t="shared" ref="K4:K42" si="3">H4/H3</f>
-        <v>1.25</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1981</v>
       </c>
@@ -815,41 +765,29 @@
         <v>10</v>
       </c>
       <c r="C5" s="8">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="I5" s="15">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1982</v>
       </c>
@@ -857,41 +795,29 @@
         <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>6</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I6" s="15">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="D6" s="8">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1983</v>
       </c>
@@ -899,41 +825,29 @@
         <v>10</v>
       </c>
       <c r="C7" s="8">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I7" s="15">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="D7" s="8">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1984</v>
       </c>
@@ -943,12 +857,12 @@
       <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8">
         <v>9</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" s="13" t="s">
         <v>16</v>
       </c>
@@ -958,21 +872,11 @@
       <c r="H8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1985</v>
       </c>
@@ -982,12 +886,12 @@
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8">
         <v>15</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" s="13" t="s">
         <v>16</v>
       </c>
@@ -997,21 +901,11 @@
       <c r="H9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="I9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1986</v>
       </c>
@@ -1021,10 +915,10 @@
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
-        <v>16</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8">
         <v>16</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -1036,21 +930,11 @@
       <c r="H10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="I10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1987</v>
       </c>
@@ -1060,12 +944,12 @@
       <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
         <v>19</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F11" s="13" t="s">
         <v>16</v>
       </c>
@@ -1075,21 +959,11 @@
       <c r="H11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="I11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1988</v>
       </c>
@@ -1114,21 +988,11 @@
       <c r="H12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="I12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1989</v>
       </c>
@@ -1153,21 +1017,11 @@
       <c r="H13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="I13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1990</v>
       </c>
@@ -1175,39 +1029,29 @@
         <v>10</v>
       </c>
       <c r="C14" s="8">
-        <v>75</v>
-      </c>
-      <c r="D14" s="8">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8">
-        <v>38</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="D14" s="8">
+        <v>75</v>
+      </c>
+      <c r="E14" s="8">
+        <v>23</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1991</v>
       </c>
@@ -1215,41 +1059,29 @@
         <v>10</v>
       </c>
       <c r="C15" s="8">
-        <v>82</v>
-      </c>
-      <c r="D15" s="8">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8">
-        <v>65</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="I15" s="15">
-        <f t="shared" si="1"/>
-        <v>1.0933333333333333</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="2"/>
-        <v>1.7105263157894737</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="3"/>
-        <v>1.3308823529411764</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="D15" s="8">
+        <v>82</v>
+      </c>
+      <c r="E15" s="8">
+        <v>34</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1992</v>
       </c>
@@ -1257,83 +1089,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="8">
-        <v>90</v>
-      </c>
-      <c r="D16" s="8">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8">
-        <v>79</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="I16" s="15">
-        <f t="shared" si="1"/>
-        <v>1.0975609756097562</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2153846153846153</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="3"/>
-        <v>1.1160220994475138</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="D16" s="8">
+        <v>90</v>
+      </c>
+      <c r="E16" s="8">
+        <v>33</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="8">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1993</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8">
         <v>98</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="8">
         <v>65</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>163</v>
-      </c>
-      <c r="I17" s="15">
-        <f t="shared" si="1"/>
-        <v>1.0888888888888888</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="2"/>
-        <v>0.82278481012658233</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" si="3"/>
-        <v>0.80693069306930698</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="I17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1994</v>
       </c>
@@ -1341,41 +1148,29 @@
         <v>10</v>
       </c>
       <c r="C18" s="8">
-        <v>127</v>
-      </c>
-      <c r="D18" s="8">
-        <v>32</v>
-      </c>
-      <c r="E18" s="8">
-        <v>93</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="8">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="I18" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2959183673469388</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="2"/>
-        <v>1.4307692307692308</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="3"/>
-        <v>1.5460122699386503</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="D18" s="8">
+        <v>127</v>
+      </c>
+      <c r="E18" s="8">
+        <v>32</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1995</v>
       </c>
@@ -1383,41 +1178,29 @@
         <v>10</v>
       </c>
       <c r="C19" s="8">
-        <v>157</v>
-      </c>
-      <c r="D19" s="8">
-        <v>19</v>
-      </c>
-      <c r="E19" s="8">
-        <v>73</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="8">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="I19" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2362204724409449</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="2"/>
-        <v>0.78494623655913975</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="3"/>
-        <v>0.98809523809523814</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="D19" s="8">
+        <v>157</v>
+      </c>
+      <c r="E19" s="8">
+        <v>19</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="8">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1996</v>
       </c>
@@ -1425,41 +1208,29 @@
         <v>10</v>
       </c>
       <c r="C20" s="8">
-        <v>179</v>
-      </c>
-      <c r="D20" s="8">
-        <v>80</v>
-      </c>
-      <c r="E20" s="8">
-        <v>109</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="I20" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1401273885350318</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="2"/>
-        <v>1.4931506849315068</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="3"/>
-        <v>1.4779116465863453</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="D20" s="8">
+        <v>179</v>
+      </c>
+      <c r="E20" s="8">
+        <v>80</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="8">
+        <v>109</v>
+      </c>
+      <c r="I20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1997</v>
       </c>
@@ -1467,41 +1238,29 @@
         <v>10</v>
       </c>
       <c r="C21" s="8">
-        <v>218</v>
-      </c>
-      <c r="D21" s="8">
-        <v>77</v>
-      </c>
-      <c r="E21" s="8">
-        <v>170</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="I21" s="15">
-        <f t="shared" si="1"/>
-        <v>1.217877094972067</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5596330275229358</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="3"/>
-        <v>1.263586956521739</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="D21" s="8">
+        <v>218</v>
+      </c>
+      <c r="E21" s="8">
+        <v>77</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>1998</v>
       </c>
@@ -1509,55 +1268,44 @@
         <v>10</v>
       </c>
       <c r="C22" s="8">
-        <v>256</v>
-      </c>
-      <c r="D22" s="8">
-        <v>87</v>
-      </c>
-      <c r="E22" s="8">
-        <v>206</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="8">
         <f t="shared" si="0"/>
         <v>549</v>
       </c>
-      <c r="I22" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1743119266055047</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2117647058823529</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="3"/>
-        <v>1.1806451612903226</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="D22" s="8">
+        <v>256</v>
+      </c>
+      <c r="E22" s="8">
+        <v>87</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="8">
+        <v>206</v>
+      </c>
+      <c r="I22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>1998</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="D23">
         <v>234</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>65</v>
-      </c>
-      <c r="E23">
-        <v>253</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -1565,83 +1313,59 @@
       <c r="G23">
         <v>180</v>
       </c>
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>552</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="1"/>
-        <v>0.9140625</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2281553398058251</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="3"/>
-        <v>1.0054644808743169</v>
-      </c>
-      <c r="L23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>253</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1999</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24">
-        <v>210</v>
-      </c>
-      <c r="D24">
-        <v>92</v>
-      </c>
-      <c r="E24">
-        <v>174</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="C24" s="8">
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="I24" s="15">
-        <f t="shared" si="1"/>
-        <v>0.89743589743589747</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
-        <v>0.68774703557312256</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="3"/>
-        <v>0.8623188405797102</v>
-      </c>
-      <c r="L24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>210</v>
+      </c>
+      <c r="E24">
+        <v>92</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2000</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="D25">
         <v>260</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>61</v>
-      </c>
-      <c r="E25">
-        <v>130</v>
       </c>
       <c r="F25">
         <v>17</v>
@@ -1649,41 +1373,29 @@
       <c r="G25">
         <v>113</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>451</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2380952380952381</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0.74712643678160917</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="3"/>
-        <v>0.94747899159663862</v>
-      </c>
-      <c r="L25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2001</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="D26">
         <v>254</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>50</v>
-      </c>
-      <c r="E26">
-        <v>116</v>
       </c>
       <c r="F26">
         <v>22</v>
@@ -1691,41 +1403,29 @@
       <c r="G26">
         <v>94</v>
       </c>
-      <c r="H26" s="8">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" si="1"/>
-        <v>0.97692307692307689</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="2"/>
-        <v>0.89230769230769236</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="3"/>
-        <v>0.9312638580931264</v>
-      </c>
-      <c r="L26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2002</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="D27">
         <v>241</v>
       </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
       <c r="E27">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -1733,41 +1433,29 @@
       <c r="G27">
         <v>127</v>
       </c>
-      <c r="H27" s="8">
-        <f t="shared" si="0"/>
-        <v>416</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.94881889763779526</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99047619047619051</v>
-      </c>
-      <c r="L27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>145</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2003</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="D28">
         <v>241</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>50</v>
-      </c>
-      <c r="E28">
-        <v>91</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -1775,41 +1463,29 @@
       <c r="G28">
         <v>87</v>
       </c>
-      <c r="H28" s="8">
-        <f t="shared" si="0"/>
-        <v>382</v>
-      </c>
-      <c r="I28" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="2"/>
-        <v>0.62758620689655176</v>
-      </c>
-      <c r="K28" s="15">
-        <f t="shared" si="3"/>
-        <v>0.91826923076923073</v>
-      </c>
-      <c r="L28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2004</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="D29">
         <v>217</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>40</v>
-      </c>
-      <c r="E29">
-        <v>81</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1817,41 +1493,29 @@
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="8">
-        <f t="shared" si="0"/>
-        <v>338</v>
-      </c>
-      <c r="I29" s="15">
-        <f t="shared" si="1"/>
-        <v>0.90041493775933612</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="2"/>
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" si="3"/>
-        <v>0.88481675392670156</v>
-      </c>
-      <c r="L29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2005</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="D30">
         <v>246</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>79</v>
-      </c>
-      <c r="E30">
-        <v>105</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -1859,41 +1523,29 @@
       <c r="G30">
         <v>85</v>
       </c>
-      <c r="H30" s="8">
-        <f t="shared" si="0"/>
-        <v>430</v>
-      </c>
-      <c r="I30" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1336405529953917</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2962962962962963</v>
-      </c>
-      <c r="K30" s="15">
-        <f t="shared" si="3"/>
-        <v>1.2721893491124261</v>
-      </c>
-      <c r="L30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>105</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2006</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
+      <c r="D31">
         <v>276</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>114</v>
-      </c>
-      <c r="E31">
-        <v>128</v>
       </c>
       <c r="F31">
         <v>45</v>
@@ -1901,41 +1553,29 @@
       <c r="G31">
         <v>83</v>
       </c>
-      <c r="H31" s="8">
-        <f t="shared" si="0"/>
-        <v>518</v>
-      </c>
-      <c r="I31" s="15">
-        <f t="shared" si="1"/>
-        <v>1.1219512195121952</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2190476190476192</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" si="3"/>
-        <v>1.2046511627906977</v>
-      </c>
-      <c r="L31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>128</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2007</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="D32">
         <v>332</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>97</v>
-      </c>
-      <c r="E32">
-        <v>156</v>
       </c>
       <c r="F32">
         <v>35</v>
@@ -1943,41 +1583,29 @@
       <c r="G32">
         <v>121</v>
       </c>
-      <c r="H32" s="8">
-        <f t="shared" si="0"/>
-        <v>585</v>
-      </c>
-      <c r="I32" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2028985507246377</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="2"/>
-        <v>1.21875</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="3"/>
-        <v>1.1293436293436294</v>
-      </c>
-      <c r="L32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>156</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2008</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+      <c r="D33">
         <v>270</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>85</v>
-      </c>
-      <c r="E33">
-        <v>104</v>
       </c>
       <c r="F33">
         <v>17</v>
@@ -1985,41 +1613,29 @@
       <c r="G33">
         <v>87</v>
       </c>
-      <c r="H33" s="8">
-        <f t="shared" si="0"/>
-        <v>459</v>
-      </c>
-      <c r="I33" s="15">
-        <f t="shared" si="1"/>
-        <v>0.81325301204819278</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="3"/>
-        <v>0.7846153846153846</v>
-      </c>
-      <c r="L33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>104</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2009</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="D34">
         <v>247</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>45</v>
-      </c>
-      <c r="E34">
-        <v>130</v>
       </c>
       <c r="F34">
         <v>13</v>
@@ -2027,27 +1643,14 @@
       <c r="G34">
         <v>117</v>
       </c>
-      <c r="H34" s="8">
-        <f>SUM(C34:E34)</f>
-        <v>422</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" si="1"/>
-        <v>0.91481481481481486</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="3"/>
-        <v>0.91938997821350765</v>
-      </c>
-      <c r="L34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2010</v>
       </c>
@@ -2072,34 +1675,26 @@
       <c r="H35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="I35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2011</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
+      <c r="D36">
         <v>309</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>38</v>
-      </c>
-      <c r="E36">
-        <v>140</v>
       </c>
       <c r="F36">
         <v>27</v>
@@ -2107,38 +1702,29 @@
       <c r="G36">
         <v>113</v>
       </c>
-      <c r="H36" s="8">
-        <f t="shared" ref="H36:H39" si="4">SUM(C36:E36)</f>
-        <v>487</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>140</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2012</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="D37">
         <v>291</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>101</v>
-      </c>
-      <c r="E37">
-        <v>148</v>
       </c>
       <c r="F37">
         <v>19</v>
@@ -2146,41 +1732,29 @@
       <c r="G37">
         <v>129</v>
       </c>
-      <c r="H37" s="8">
-        <f t="shared" si="4"/>
-        <v>540</v>
-      </c>
-      <c r="I37" s="15">
-        <f t="shared" si="1"/>
-        <v>0.94174757281553401</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="2"/>
-        <v>1.0571428571428572</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="3"/>
-        <v>1.108829568788501</v>
-      </c>
-      <c r="L37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>148</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2013</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="D38">
         <v>188</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>46</v>
-      </c>
-      <c r="E38">
-        <v>122</v>
       </c>
       <c r="F38">
         <v>11</v>
@@ -2188,41 +1762,29 @@
       <c r="G38">
         <v>111</v>
       </c>
-      <c r="H38" s="8">
-        <f t="shared" si="4"/>
-        <v>356</v>
-      </c>
-      <c r="I38" s="15">
-        <f t="shared" si="1"/>
-        <v>0.64604810996563578</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="2"/>
-        <v>0.82432432432432434</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="3"/>
-        <v>0.65925925925925921</v>
-      </c>
-      <c r="L38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>122</v>
+      </c>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2014</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="D39">
         <v>168</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>23</v>
-      </c>
-      <c r="E39">
-        <v>95</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -2230,41 +1792,29 @@
       <c r="G39">
         <v>85</v>
       </c>
-      <c r="H39" s="8">
-        <f t="shared" si="4"/>
-        <v>286</v>
-      </c>
-      <c r="I39" s="15">
-        <f t="shared" si="1"/>
-        <v>0.8936170212765957</v>
-      </c>
-      <c r="J39" s="15">
-        <f t="shared" si="2"/>
-        <v>0.77868852459016391</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" si="3"/>
-        <v>0.8033707865168539</v>
-      </c>
-      <c r="L39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>95</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2015</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="D40">
         <v>165</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>32</v>
-      </c>
-      <c r="E40">
-        <v>86</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -2272,41 +1822,29 @@
       <c r="G40">
         <v>76</v>
       </c>
-      <c r="H40" s="8">
-        <f>SUM(C40:E40)</f>
-        <v>283</v>
-      </c>
-      <c r="I40" s="15">
-        <f t="shared" si="1"/>
-        <v>0.9821428571428571</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="2"/>
-        <v>0.90526315789473688</v>
-      </c>
-      <c r="K40" s="15">
-        <f t="shared" si="3"/>
-        <v>0.98951048951048948</v>
-      </c>
-      <c r="L40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2015.76923076923</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="D41">
         <v>165</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>48</v>
-      </c>
-      <c r="E41">
-        <v>77</v>
       </c>
       <c r="F41">
         <v>11</v>
@@ -2314,26 +1852,14 @@
       <c r="G41">
         <v>66</v>
       </c>
-      <c r="H41" s="8">
-        <v>290</v>
-      </c>
-      <c r="I41" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="15">
-        <f t="shared" si="2"/>
-        <v>0.89534883720930236</v>
-      </c>
-      <c r="K41" s="15">
-        <f t="shared" si="3"/>
-        <v>1.0247349823321554</v>
-      </c>
-      <c r="L41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2016.96703296703</v>
       </c>
@@ -2341,42 +1867,30 @@
         <v>10</v>
       </c>
       <c r="C42" s="8">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+      <c r="D42" s="8">
         <v>212</v>
       </c>
-      <c r="D42" s="8">
+      <c r="E42" s="8">
         <v>97</v>
       </c>
-      <c r="E42" s="8">
+      <c r="F42" s="8">
+        <v>13</v>
+      </c>
+      <c r="G42" s="8">
+        <v>81</v>
+      </c>
+      <c r="H42" s="8">
         <f>F42+G42</f>
         <v>94</v>
       </c>
-      <c r="F42" s="8">
-        <v>13</v>
-      </c>
-      <c r="G42" s="8">
-        <v>81</v>
-      </c>
-      <c r="H42" s="8">
-        <f>SUM(C42:E42)</f>
-        <v>403</v>
-      </c>
-      <c r="I42" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2848484848484849</v>
-      </c>
-      <c r="J42" s="15">
-        <f t="shared" si="2"/>
-        <v>1.2207792207792207</v>
-      </c>
-      <c r="K42" s="15">
-        <f t="shared" si="3"/>
-        <v>1.3896551724137931</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="I42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2018.16483516484</v>
       </c>
@@ -2389,55 +1903,46 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2019.36263736264</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="8">
+        <v>445</v>
+      </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="8">
-        <v>445</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H44" s="13"/>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2020</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="8">
+        <v>293</v>
+      </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="8">
-        <v>293</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H45" s="13"/>
+      <c r="I45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2020.56043956044</v>
       </c>
@@ -2450,11 +1955,8 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2021.75824175824</v>
       </c>
@@ -2462,49 +1964,43 @@
         <v>10</v>
       </c>
       <c r="C47" s="8">
+        <v>264</v>
+      </c>
+      <c r="D47" s="8">
         <v>138</v>
       </c>
-      <c r="D47" s="8">
+      <c r="E47" s="8">
         <v>55</v>
-      </c>
-      <c r="E47" s="8">
-        <v>69</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="8">
-        <v>264</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2022.95604395604</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="8">
+        <v>315</v>
+      </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="8">
-        <v>315</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" t="s">
+      <c r="H48" s="13"/>
+      <c r="I48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2024.1538461538501</v>
       </c>
@@ -2517,12 +2013,9 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1998</v>
       </c>
@@ -2547,66 +2040,57 @@
       <c r="H50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I50" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1999</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="8">
+        <f>D51+E51+H51</f>
         <v>1</v>
       </c>
       <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>0</v>
       </c>
-      <c r="E51" s="8">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
         <f>F51+G51</f>
         <v>0</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8">
-        <f>C51+D51+E51</f>
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2000</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="8">
+        <f t="shared" ref="C52:C69" si="1">D52+E52+H52</f>
+        <v>3</v>
+      </c>
+      <c r="D52">
         <v>2</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1</v>
-      </c>
-      <c r="E52" s="8">
-        <f t="shared" ref="E52:E68" si="5">F52+G52</f>
-        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2615,29 +2099,29 @@
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" ref="H52:H55" si="6">C52+D52+E52</f>
-        <v>3</v>
-      </c>
-      <c r="L52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F52+G52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2001</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D53">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0</v>
-      </c>
-      <c r="E53" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2646,29 +2130,29 @@
         <v>1</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="L53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F53+G53</f>
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2002</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D54">
         <v>3</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>2</v>
-      </c>
-      <c r="E54" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2677,29 +2161,29 @@
         <v>1</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="L54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F54+G54</f>
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2003</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>2</v>
-      </c>
-      <c r="E55" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2708,133 +2192,145 @@
         <v>1</v>
       </c>
       <c r="H55" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="L55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F55+G55</f>
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2004</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>2</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F56" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2005</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
         <v>6</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>5</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F57" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2006</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
         <v>9</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>5</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F58" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2007</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
         <v>9</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>5</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="F59" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2008</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="8">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D60">
         <v>15</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>4</v>
-      </c>
-      <c r="E60" s="8">
-        <f t="shared" si="5"/>
-        <v>13</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -2843,29 +2339,29 @@
         <v>10</v>
       </c>
       <c r="H60" s="8">
-        <f>C60+D60+E60</f>
-        <v>32</v>
-      </c>
-      <c r="L60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F60+G60</f>
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2009</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="8">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D61">
         <v>14</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>8</v>
-      </c>
-      <c r="E61" s="8">
-        <f t="shared" si="5"/>
-        <v>16</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -2874,29 +2370,29 @@
         <v>12</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" ref="H61:H68" si="7">C61+D61+E61</f>
-        <v>38</v>
-      </c>
-      <c r="L61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F61+G61</f>
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2010</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D62">
         <v>18</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>15</v>
-      </c>
-      <c r="E62" s="8">
-        <f t="shared" si="5"/>
-        <v>17</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -2905,29 +2401,29 @@
         <v>15</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="L62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F62+G62</f>
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2011</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="8">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D63">
         <v>26</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>12</v>
-      </c>
-      <c r="E63" s="8">
-        <f t="shared" si="5"/>
-        <v>16</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2936,29 +2432,29 @@
         <v>10</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="L63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F63+G63</f>
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2012</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="8">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D64">
         <v>34</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>13</v>
-      </c>
-      <c r="E64" s="8">
-        <f t="shared" si="5"/>
-        <v>19</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -2967,29 +2463,29 @@
         <v>14</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="L64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F64+G64</f>
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2013</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="8">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D65">
         <v>42</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>13</v>
-      </c>
-      <c r="E65" s="8">
-        <f t="shared" si="5"/>
-        <v>21</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -2998,29 +2494,29 @@
         <v>16</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="L65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F65+G65</f>
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2014</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="8">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D66">
         <v>45</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>17</v>
-      </c>
-      <c r="E66" s="8">
-        <f t="shared" si="5"/>
-        <v>30</v>
       </c>
       <c r="F66">
         <v>7</v>
@@ -3029,29 +2525,29 @@
         <v>23</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="L66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F66+G66</f>
+        <v>30</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2015</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="8">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D67">
         <v>43</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>15</v>
-      </c>
-      <c r="E67" s="8">
-        <f t="shared" si="5"/>
-        <v>27</v>
       </c>
       <c r="F67">
         <v>5</v>
@@ -3060,29 +2556,29 @@
         <v>22</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="L67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F67+G67</f>
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2015.76923076923</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="8">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D68">
         <v>50</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>12</v>
-      </c>
-      <c r="E68" s="8">
-        <f t="shared" si="5"/>
-        <v>31</v>
       </c>
       <c r="F68">
         <v>7</v>
@@ -3091,14 +2587,14 @@
         <v>24</v>
       </c>
       <c r="H68" s="8">
-        <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="L68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+        <f>F68+G68</f>
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2016.96703296703</v>
       </c>
@@ -3106,13 +2602,14 @@
         <v>11</v>
       </c>
       <c r="C69" s="8">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="D69" s="8">
         <v>55</v>
       </c>
-      <c r="D69" s="8">
+      <c r="E69" s="8">
         <v>17</v>
-      </c>
-      <c r="E69" s="8">
-        <v>33</v>
       </c>
       <c r="F69" s="8">
         <v>7</v>
@@ -3121,14 +2618,13 @@
         <v>33</v>
       </c>
       <c r="H69" s="8">
-        <f>SUM(C69:G69)</f>
-        <v>145</v>
-      </c>
-      <c r="L69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2018.16483516484</v>
       </c>
@@ -3142,61 +2638,61 @@
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2019.36263736264</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="8">
+        <v>138</v>
+      </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
-      <c r="H71" s="8">
-        <v>138</v>
-      </c>
-      <c r="L71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H71" s="13"/>
+      <c r="I71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2020</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="8">
+        <v>139</v>
+      </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="8">
-        <v>139</v>
-      </c>
-      <c r="L72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H72" s="13"/>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2020.56043956044</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="8">
+        <v>151</v>
+      </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="8">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2021.75824175824</v>
       </c>
@@ -3204,43 +2700,43 @@
         <v>11</v>
       </c>
       <c r="C74" s="8">
+        <v>170</v>
+      </c>
+      <c r="D74" s="8">
         <v>90</v>
       </c>
-      <c r="D74" s="8">
+      <c r="E74" s="8">
         <v>25</v>
-      </c>
-      <c r="E74" s="8">
-        <v>55</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="8">
-        <v>170</v>
-      </c>
-      <c r="L74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2022.95604395604</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="8">
+        <v>188</v>
+      </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="8">
-        <v>188</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="H75" s="13"/>
+      <c r="I75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>2024.1538461538501</v>
       </c>
@@ -3253,12 +2749,9 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1998</v>
       </c>
@@ -3283,25 +2776,26 @@
       <c r="H77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L77" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I77" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1999</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="C78">
-        <v>16</v>
+      <c r="C78" s="8">
+        <f>D78+E78+H78</f>
+        <v>27</v>
       </c>
       <c r="D78">
+        <v>16</v>
+      </c>
+      <c r="E78">
         <v>9</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3309,29 +2803,29 @@
       <c r="G78">
         <v>2</v>
       </c>
-      <c r="H78" s="8">
-        <f>SUM(C78:E78)</f>
-        <v>27</v>
-      </c>
-      <c r="L78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2000</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="8">
+        <f t="shared" ref="C79:C96" si="2">D79+E79+H79</f>
+        <v>25</v>
+      </c>
+      <c r="D79">
         <v>14</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>4</v>
-      </c>
-      <c r="E79">
-        <v>7</v>
       </c>
       <c r="F79">
         <v>5</v>
@@ -3339,29 +2833,29 @@
       <c r="G79">
         <v>2</v>
       </c>
-      <c r="H79" s="8">
-        <f t="shared" ref="H79:H95" si="8">SUM(C79:E79)</f>
-        <v>25</v>
-      </c>
-      <c r="L79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2001</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="8">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D80">
         <v>12</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>3</v>
-      </c>
-      <c r="E80">
-        <v>6</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -3369,29 +2863,29 @@
       <c r="G80">
         <v>4</v>
       </c>
-      <c r="H80" s="8">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="L80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2002</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="8">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D81">
         <v>13</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>2</v>
-      </c>
-      <c r="E81">
-        <v>7</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3399,29 +2893,29 @@
       <c r="G81">
         <v>6</v>
       </c>
-      <c r="H81" s="8">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="L81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2003</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="8">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D82">
         <v>14</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>6</v>
-      </c>
-      <c r="E82">
-        <v>8</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3429,29 +2923,29 @@
       <c r="G82">
         <v>7</v>
       </c>
-      <c r="H82" s="8">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="L82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2004</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="8">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D83">
         <v>14</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>5</v>
-      </c>
-      <c r="E83">
-        <v>11</v>
       </c>
       <c r="F83">
         <v>3</v>
@@ -3459,29 +2953,29 @@
       <c r="G83">
         <v>8</v>
       </c>
-      <c r="H83" s="8">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="L83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2005</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="8">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D84">
         <v>15</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>7</v>
-      </c>
-      <c r="E84">
-        <v>12</v>
       </c>
       <c r="F84">
         <v>4</v>
@@ -3489,29 +2983,29 @@
       <c r="G84">
         <v>8</v>
       </c>
-      <c r="H84" s="8">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="L84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2006</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="8">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D85">
         <v>20</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>6</v>
-      </c>
-      <c r="E85">
-        <v>15</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -3519,29 +3013,29 @@
       <c r="G85">
         <v>12</v>
       </c>
-      <c r="H85" s="8">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="L85" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2007</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="8">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D86">
         <v>21</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>3</v>
-      </c>
-      <c r="E86">
-        <v>17</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -3549,29 +3043,29 @@
       <c r="G86">
         <v>11</v>
       </c>
-      <c r="H86" s="8">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="L86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2008</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="8">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D87">
         <v>21</v>
       </c>
-      <c r="D87">
-        <v>10</v>
-      </c>
       <c r="E87">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F87">
         <v>4</v>
@@ -3579,29 +3073,29 @@
       <c r="G87">
         <v>15</v>
       </c>
-      <c r="H87" s="8">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="L87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2009</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="8">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D88">
         <v>32</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>8</v>
-      </c>
-      <c r="E88">
-        <v>15</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -3609,29 +3103,29 @@
       <c r="G88">
         <v>13</v>
       </c>
-      <c r="H88" s="8">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="L88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2010</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="8">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D89">
         <v>26</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>8</v>
-      </c>
-      <c r="E89">
-        <v>20</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -3639,29 +3133,29 @@
       <c r="G89">
         <v>18</v>
       </c>
-      <c r="H89" s="8">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="L89" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2011</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D90">
         <v>32</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>9</v>
-      </c>
-      <c r="E90">
-        <v>19</v>
       </c>
       <c r="F90">
         <v>7</v>
@@ -3669,29 +3163,29 @@
       <c r="G90">
         <v>12</v>
       </c>
-      <c r="H90" s="8">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="L90" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2012</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="8">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="D91">
         <v>53</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>14</v>
-      </c>
-      <c r="E91">
-        <v>27</v>
       </c>
       <c r="F91">
         <v>5</v>
@@ -3699,29 +3193,29 @@
       <c r="G91">
         <v>22</v>
       </c>
-      <c r="H91" s="8">
-        <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="L91" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2013</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="8">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D92">
         <v>38</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>8</v>
-      </c>
-      <c r="E92">
-        <v>25</v>
       </c>
       <c r="F92">
         <v>5</v>
@@ -3729,29 +3223,29 @@
       <c r="G92">
         <v>20</v>
       </c>
-      <c r="H92" s="8">
-        <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="L92" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2014</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="8">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="D93">
         <v>69</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>15</v>
-      </c>
-      <c r="E93">
-        <v>36</v>
       </c>
       <c r="F93">
         <v>4</v>
@@ -3759,29 +3253,29 @@
       <c r="G93">
         <v>32</v>
       </c>
-      <c r="H93" s="8">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="L93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>36</v>
+      </c>
+      <c r="I93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2015</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="8">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="D94">
         <v>65</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>18</v>
-      </c>
-      <c r="E94">
-        <v>45</v>
       </c>
       <c r="F94">
         <v>11</v>
@@ -3789,29 +3283,29 @@
       <c r="G94">
         <v>34</v>
       </c>
-      <c r="H94" s="8">
-        <f t="shared" si="8"/>
-        <v>128</v>
-      </c>
-      <c r="L94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>45</v>
+      </c>
+      <c r="I94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2015.76923076923</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="8">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="D95">
         <v>69</v>
       </c>
-      <c r="D95">
-        <v>10</v>
-      </c>
       <c r="E95">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3819,15 +3313,14 @@
       <c r="G95">
         <v>47</v>
       </c>
-      <c r="H95" s="8">
-        <f t="shared" si="8"/>
-        <v>126</v>
-      </c>
-      <c r="L95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2016.96703296703</v>
       </c>
@@ -3835,30 +3328,30 @@
         <v>12</v>
       </c>
       <c r="C96" s="8">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="D96" s="8">
         <v>74</v>
       </c>
-      <c r="D96" s="8">
+      <c r="E96" s="8">
         <v>24</v>
       </c>
-      <c r="E96" s="8">
+      <c r="F96" s="8">
+        <v>4</v>
+      </c>
+      <c r="G96" s="8">
+        <v>43</v>
+      </c>
+      <c r="H96" s="8">
         <f>F96+G96</f>
         <v>47</v>
       </c>
-      <c r="F96" s="8">
-        <v>4</v>
-      </c>
-      <c r="G96" s="8">
-        <v>43</v>
-      </c>
-      <c r="H96" s="8">
-        <f>SUM(C96:E96)</f>
-        <v>145</v>
-      </c>
-      <c r="L96" t="s">
+      <c r="I96" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2018.16483516484</v>
       </c>
@@ -3872,64 +3365,64 @@
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2019.36263736264</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="8">
+        <v>155</v>
+      </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
-      <c r="H98" s="8">
-        <v>155</v>
-      </c>
-      <c r="L98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H98" s="13"/>
+      <c r="I98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2020</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="8">
+        <v>164</v>
+      </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="8">
-        <v>164</v>
-      </c>
-      <c r="L99" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H99" s="13"/>
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2020.56043956044</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="8">
+        <v>169</v>
+      </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="8">
-        <v>169</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="H100" s="13"/>
+      <c r="I100" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2021.75824175824</v>
       </c>
@@ -3954,30 +3447,30 @@
       <c r="H101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L101" t="s">
+      <c r="I101" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2022.95604395604</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="8">
+        <v>199</v>
+      </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="8">
-        <v>199</v>
-      </c>
-      <c r="L102" t="s">
+      <c r="H102" s="13"/>
+      <c r="I102" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>2024.1538461538501</v>
       </c>
@@ -3990,36 +3483,33 @@
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
@@ -4036,14 +3526,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L47" r:id="rId1" location=":~:text=As%20of%20March%202024:%20Point,tule%20elk%20in%20the%20park." xr:uid="{AEF6C9CE-5083-E549-922E-A6182D0DBF28}"/>
-    <hyperlink ref="L69" r:id="rId2" xr:uid="{28895DCC-24F1-A148-BF71-C7E4471CC8F1}"/>
+    <hyperlink ref="I47" r:id="rId1" location=":~:text=As%20of%20March%202024:%20Point,tule%20elk%20in%20the%20park." xr:uid="{AEF6C9CE-5083-E549-922E-A6182D0DBF28}"/>
+    <hyperlink ref="I69" r:id="rId2" xr:uid="{28895DCC-24F1-A148-BF71-C7E4471CC8F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C644F314-82BA-E84C-808B-E1FDF537D8DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0DA354-8054-AE43-85D2-96F3DF6BC0A7}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -4065,7 +3567,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4681,7 +4183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F81E988-6FDA-8A42-B709-3DD62F03C765}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -4703,7 +4205,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5265,7 +4767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DCAD75-B48B-1543-B894-18739234BBCC}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -5908,7 +5410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FF33B9-E6AE-CF4D-A9E2-E556E9DD299E}">
   <dimension ref="A1:A5"/>
   <sheetViews>
